--- a/Base/Teams/Football Team/Distributions.xlsx
+++ b/Base/Teams/Football Team/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(3.10020526300001, 1.2615382683319147, -0.012336476230368187, 2.5912868289101514)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2544476498622625, 1.3821034138461243, 2.065166436502837, 6.280078590496367)</t>
-  </si>
-  <si>
-    <t>NIG(0.6454209532603792, 0.41063969676467105, 1.7038975804833743, 2.779119021888077)</t>
-  </si>
-  <si>
-    <t>MIE(53.870327658812016, 6.663124387285471, -29.3302543308684, 26.864971867630317)</t>
+    <t>NCT(2.8897424023070566, 1.1396013648214876, 0.24127482754312501, 2.606802356152179)</t>
+  </si>
+  <si>
+    <t>NIG(1.4179851095053033, 1.0181052132002812, 3.8869359883094967, 6.283390878215604)</t>
+  </si>
+  <si>
+    <t>NIG(0.6908286094213698, 0.4555737041387318, 1.5878312762088909, 2.800272387263946)</t>
+  </si>
+  <si>
+    <t>JSU(-1.4944948884536071, 1.3426110106194833, 1.738018519279759, 5.302845331089905)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Football Team/Distributions.xlsx
+++ b/Base/Teams/Football Team/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.8897424023070566, 1.1396013648214876, 0.24127482754312501, 2.606802356152179)</t>
-  </si>
-  <si>
-    <t>NIG(1.4179851095053033, 1.0181052132002812, 3.8869359883094967, 6.283390878215604)</t>
-  </si>
-  <si>
-    <t>NIG(0.6908286094213698, 0.4555737041387318, 1.5878312762088909, 2.800272387263946)</t>
-  </si>
-  <si>
-    <t>JSU(-1.4944948884536071, 1.3426110106194833, 1.738018519279759, 5.302845331089905)</t>
+    <t>NCT(3.0468275264548565, 1.239625383183412, -0.014177555829265314, 2.618972214012707)</t>
+  </si>
+  <si>
+    <t>JSU(-1.2128937733613094, 1.3339925296175839, 2.2894003183464853, 5.908483215763431)</t>
+  </si>
+  <si>
+    <t>NIG(0.7201114721969599, 0.4595527151399929, 1.7099238987612904, 2.797237825461088)</t>
+  </si>
+  <si>
+    <t>JSU(-1.543523806209776, 1.3778128622180574, 1.544314991092791, 5.372569775371369)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Football Team/Distributions.xlsx
+++ b/Base/Teams/Football Team/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(3.0468275264548565, 1.239625383183412, -0.014177555829265314, 2.618972214012707)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2128937733613094, 1.3339925296175839, 2.2894003183464853, 5.908483215763431)</t>
-  </si>
-  <si>
-    <t>NIG(0.7201114721969599, 0.4595527151399929, 1.7099238987612904, 2.797237825461088)</t>
-  </si>
-  <si>
-    <t>JSU(-1.543523806209776, 1.3778128622180574, 1.544314991092791, 5.372569775371369)</t>
+    <t>NCT(2.8740398169273846, 1.2329050188459543, -0.030582831213484627, 2.5718628340153167)</t>
+  </si>
+  <si>
+    <t>NIG(1.2854475829052339, 0.9380794127144989, 3.9209204097618917, 6.16521099304507)</t>
+  </si>
+  <si>
+    <t>NIG(0.8140537683887275, 0.5193930603136606, 1.7078718547586869, 3.038332692316259)</t>
+  </si>
+  <si>
+    <t>JSU(-1.4974458139227005, 1.3217501917493517, 1.9127348890913867, 5.178704868676462)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Football Team/Distributions.xlsx
+++ b/Base/Teams/Football Team/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.8740398169273846, 1.2329050188459543, -0.030582831213484627, 2.5718628340153167)</t>
-  </si>
-  <si>
-    <t>NIG(1.2854475829052339, 0.9380794127144989, 3.9209204097618917, 6.16521099304507)</t>
-  </si>
-  <si>
-    <t>NIG(0.8140537683887275, 0.5193930603136606, 1.7078718547586869, 3.038332692316259)</t>
-  </si>
-  <si>
-    <t>JSU(-1.4974458139227005, 1.3217501917493517, 1.9127348890913867, 5.178704868676462)</t>
+    <t>NCT(2.866960236765078, 1.2108580379941865, 0.09299699794564023, 2.5375334989226905)</t>
+  </si>
+  <si>
+    <t>NIG(1.2874689748737906, 0.9180171389018468, 4.050287401345738, 6.238441027794778)</t>
+  </si>
+  <si>
+    <t>NIG(0.8203995437981877, 0.5203011854978306, 1.7059292795422563, 3.07632641683195)</t>
+  </si>
+  <si>
+    <t>JSU(-1.4571164103794467, 1.3376898055101358, 2.057926571428432, 5.448513960767446)</t>
   </si>
 </sst>
 </file>
